--- a/biology/Zoologie/Gotthelf_Fischer_von_Waldheim/Gotthelf_Fischer_von_Waldheim.xlsx
+++ b/biology/Zoologie/Gotthelf_Fischer_von_Waldheim/Gotthelf_Fischer_von_Waldheim.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Johann Gotthelf Fischer von Waldheim (Grigori Ivanovitch Fischer von Waldheim en russe) est un  naturaliste, un  paléontologue et un anatomiste saxon devenu sujet russe, né le 13 octobre 1771 à Waldheim en Saxe et mort le 18 octobre 1853.
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après ses études de médecine à Leipzig, il voyage à Vienne et Paris avec son ami Alexander von Humboldt (1769–1859). À Paris, il suit les cours de Georges Cuvier (1769–1832).
-Il enseigne d’abord à Mayence, où il était professeur d'histoire naturelle et bibliothécaire à l'École centrale[1], puis à partir de 1804, il est professeur d’histoire naturelle à l’Académie de Moscou et directeur de son muséum. En août 1805, il fonde la Société impériale des naturalistes de Moscou.
+Il enseigne d’abord à Mayence, où il était professeur d'histoire naturelle et bibliothécaire à l'École centrale, puis à partir de 1804, il est professeur d’histoire naturelle à l’Académie de Moscou et directeur de son muséum. En août 1805, il fonde la Société impériale des naturalistes de Moscou.
 Il travaille dans tous les domaines de l’histoire naturelle. Il fait de nombreuses recherches sur la classification des invertébrés et publie Entomographia Imperii Rossici dont la parution s’étale de 1820 à 1851. Il étudie également les fossiles autour de Moscou ainsi que les mollusques et d’autres organismes marins.
 Gotthelf Fischer von Waldheim est le père d'Alexandre Grigorievitch Fischer von Waldheim et le grand-père d'Alexandre Alexandrovitch Fischer von Waldheim. Il est enterré au cimetière de la Présentation de Moscou, aussi appelé le cimetière allemand.
 </t>
@@ -545,7 +559,9 @@
           <t>Taxons</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Caninae Fischer de Waldheim, 1817
 Caviidae Fischer de Waldheim, 1817
@@ -578,7 +594,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Fischer von Waldheim a écrit en allemand, en français et en latin.
 Versuch über die Schwimmblase der Fische, Leipzig, 1795
@@ -610,9 +628,43 @@
 Einige Worte an die Mainzer, bei der Feierlichkeit des dem Erfinder der Buchdruckerkunst Johann Gutenberg in Mainz zu errichtenden Denkmals, Moscou, 1836
 Recherches sur les ossements fossiles de la Russie, Moscou, 1836–1839
 En ligne : v. 2, 1838 ; v. 3, 1839
-Spicilegium entomographiae Rossicae, Moscou, 1844
-Travail de traduction et d'édition
-Jan Ingenhousz (avec Gotthelf Fischer et A. von Humboldt), Über Ernährung der Pflanzen und Fruchtbarkeit des Bodens aus dem Englischen übersetzt und mit Anmerkungen versehen von Gotthelf Fischer. Nebst einer Einleitung über einige Gegenstände der Pflanzenphysiologie von F. A. von Humboldt, Leipzig, 1798Ingenhousz avait d'abord fait paraître seul cet ouvrage en anglais en 1796 sous le titre An essay on the food of plants and the renovation of soils.</t>
+Spicilegium entomographiae Rossicae, Moscou, 1844</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Gotthelf_Fischer_von_Waldheim</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gotthelf_Fischer_von_Waldheim</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Liste partielle des publications</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Travail de traduction et d'édition</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Jan Ingenhousz (avec Gotthelf Fischer et A. von Humboldt), Über Ernährung der Pflanzen und Fruchtbarkeit des Bodens aus dem Englischen übersetzt und mit Anmerkungen versehen von Gotthelf Fischer. Nebst einer Einleitung über einige Gegenstände der Pflanzenphysiologie von F. A. von Humboldt, Leipzig, 1798Ingenhousz avait d'abord fait paraître seul cet ouvrage en anglais en 1796 sous le titre An essay on the food of plants and the renovation of soils.</t>
         </is>
       </c>
     </row>
